--- a/datasets/Education.xlsx
+++ b/datasets/Education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NLPProject\FinalProject\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\NLPProject\FinalProject\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30762C00-1D32-4DBC-80B4-00DD133B2AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B875B0-E626-471F-AEC2-BF0A83673916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B39C333-E15F-40F5-BC29-D1C6CB5E2453}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B39C333-E15F-40F5-BC29-D1C6CB5E2453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="938">
   <si>
     <t>Harvard University</t>
   </si>
@@ -2822,6 +2822,18 @@
   </si>
   <si>
     <t>Vietnam-Vietnam-Korea University of Information and Communication Technology of Information and Communication Technology - UD</t>
+  </si>
+  <si>
+    <t>University ofSouthernCalifornia City</t>
+  </si>
+  <si>
+    <t>Bachelor ofScience</t>
+  </si>
+  <si>
+    <t>High SchoolDiploma</t>
+  </si>
+  <si>
+    <t>:PoliticalScienceand Law2007 Montclair State University</t>
   </si>
 </sst>
 </file>
@@ -3685,7 +3697,7 @@
   <dimension ref="A1:A2714"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2073" workbookViewId="0">
-      <selection activeCell="A2073" sqref="A2073:XFD2073"/>
+      <selection activeCell="A2088" sqref="A2088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14055,12 +14067,12 @@
     </row>
     <row r="2073" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2073" t="s">
-        <v>334</v>
+        <v>934</v>
       </c>
     </row>
     <row r="2074" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2074" t="s">
-        <v>318</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2075" spans="1:1" x14ac:dyDescent="0.2">
@@ -14100,7 +14112,7 @@
     </row>
     <row r="2082" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2082" t="s">
-        <v>218</v>
+        <v>936</v>
       </c>
     </row>
     <row r="2083" spans="1:1" x14ac:dyDescent="0.2">
@@ -14130,7 +14142,7 @@
     </row>
     <row r="2088" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2088" t="s">
-        <v>219</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2089" spans="1:1" x14ac:dyDescent="0.2">
